--- a/Images_and_Data/Data/CT6_Rabbit_data.xlsx
+++ b/Images_and_Data/Data/CT6_Rabbit_data.xlsx
@@ -350,7 +350,7 @@
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection sqref="A1:B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -368,367 +368,327 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>60.1</v>
+        <v>46.2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f>5+A2</f>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B3">
-        <v>71.099999999999994</v>
+        <v>75.2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A42" si="0">5+A3</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B4">
-        <v>88.8</v>
+        <v>93.1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="B5">
-        <v>88.4</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="B6">
-        <v>80.8</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="B7">
-        <v>54.7</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="B8">
-        <v>27.1</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <v>210</v>
       </c>
       <c r="B9">
-        <v>17.100000000000001</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="B10">
-        <v>17.899999999999999</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="0"/>
-        <v>45</v>
+        <v>270</v>
       </c>
       <c r="B11">
-        <v>20.2</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="B12">
-        <v>32.299999999999997</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="0"/>
-        <v>55</v>
+        <v>330</v>
       </c>
       <c r="B13">
-        <v>63.9</v>
+        <v>65.5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="B14">
-        <v>80.400000000000006</v>
+        <v>78.400000000000006</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="0"/>
-        <v>65</v>
+        <v>390</v>
       </c>
       <c r="B15">
-        <v>91.7</v>
+        <v>94.9</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="0"/>
-        <v>70</v>
+        <v>420</v>
       </c>
       <c r="B16">
-        <v>95.8</v>
+        <v>88.4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="0"/>
-        <v>75</v>
+        <v>450</v>
       </c>
       <c r="B17">
-        <v>69.599999999999994</v>
+        <v>69.3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <v>480</v>
       </c>
       <c r="B18">
-        <v>34.4</v>
+        <v>55.4</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="0"/>
-        <v>85</v>
+        <v>510</v>
       </c>
       <c r="B19">
-        <v>15.8</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="0"/>
-        <v>90</v>
+        <v>540</v>
       </c>
       <c r="B20">
-        <v>7.4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="0"/>
-        <v>95</v>
+        <v>570</v>
       </c>
       <c r="B21">
-        <v>10.3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="B22">
-        <v>30.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="0"/>
-        <v>105</v>
+        <v>630</v>
       </c>
       <c r="B23">
-        <v>44.3</v>
+        <v>45.6</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="0"/>
-        <v>110</v>
+        <v>660</v>
       </c>
       <c r="B24">
-        <v>73.7</v>
+        <v>66.599999999999994</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="0"/>
-        <v>115</v>
+        <v>690</v>
       </c>
       <c r="B25">
-        <v>88.4</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="0"/>
-        <v>120</v>
+        <v>720</v>
       </c>
       <c r="B26">
-        <v>100.8</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="0"/>
-        <v>125</v>
+        <v>750</v>
       </c>
       <c r="B27">
-        <v>77.8</v>
+        <v>86.4</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="0"/>
-        <v>130</v>
+        <v>780</v>
       </c>
       <c r="B28">
-        <v>66</v>
+        <v>61.8</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="0"/>
-        <v>135</v>
+        <v>810</v>
       </c>
       <c r="B29">
-        <v>36.799999999999997</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" si="0"/>
-        <v>140</v>
+        <v>840</v>
       </c>
       <c r="B30">
-        <v>15.9</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f t="shared" si="0"/>
-        <v>145</v>
+        <v>870</v>
       </c>
       <c r="B31">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f t="shared" si="0"/>
-        <v>150</v>
+        <v>900</v>
       </c>
       <c r="B32">
-        <v>16.8</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" si="0"/>
-        <v>155</v>
+        <v>930</v>
       </c>
       <c r="B33">
-        <v>41.5</v>
+        <v>34.700000000000003</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f t="shared" si="0"/>
-        <v>160</v>
+        <v>960</v>
       </c>
       <c r="B34">
-        <v>64.599999999999994</v>
+        <v>69.3</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f t="shared" si="0"/>
-        <v>165</v>
+        <v>990</v>
       </c>
       <c r="B35">
-        <v>88.2</v>
+        <v>86.1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f t="shared" si="0"/>
-        <v>170</v>
+        <v>1020</v>
       </c>
       <c r="B36">
-        <v>93</v>
+        <v>89.6</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f t="shared" si="0"/>
-        <v>175</v>
+        <v>1050</v>
       </c>
       <c r="B37">
-        <v>97.3</v>
+        <v>81.8</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f t="shared" si="0"/>
-        <v>180</v>
+        <v>1080</v>
       </c>
       <c r="B38">
-        <v>78.400000000000006</v>
+        <v>71.7</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f t="shared" si="0"/>
-        <v>185</v>
+        <v>1110</v>
       </c>
       <c r="B39">
-        <v>40.9</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f t="shared" si="0"/>
-        <v>190</v>
+        <v>1140</v>
       </c>
       <c r="B40">
-        <v>24.3</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f t="shared" si="0"/>
-        <v>195</v>
+        <v>1170</v>
       </c>
       <c r="B41">
-        <v>17.399999999999999</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="B42">
-        <v>29.5</v>
+        <v>10.8</v>
       </c>
     </row>
   </sheetData>
